--- a/biology/Zoologie/Fêtes_de_l'ours_en_Vallespir/Fêtes_de_l'ours_en_Vallespir.xlsx
+++ b/biology/Zoologie/Fêtes_de_l'ours_en_Vallespir/Fêtes_de_l'ours_en_Vallespir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_l%27ours_en_Vallespir</t>
+          <t>Fêtes_de_l'ours_en_Vallespir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Festa de l’Os (en français : fête de l'Ours) ou Chasse à l’ours (caça ou cacera de l’ós) ou encore Jour de l'ours / des ours (diada ou dia de l’ós / dels óssos) est une pratique festive carnavalesque de la région du Haut-Vallespir, dans les Pyrénées-Orientales. Elle se déroule dans trois communes : Arles-sur-Tech, Prats-de-Mollo-la-Preste et Saint-Laurent-de-Cerdans, à la fin de l’hiver, au mois de février.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_l%27ours_en_Vallespir</t>
+          <t>Fêtes_de_l'ours_en_Vallespir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fêtes de l’ours sont la correspondance païenne de la Chandeleur. 
 Dans la religion chrétienne, le 2 février, jour aujourd’hui choisi pour la Chandeleur, correspond à l’évènement de la présentation de l’enfant Jésus au temple. Mais cette date semble être la récupération par l’église de célébrations païennes bien plus anciennes. 
@@ -521,9 +535,9 @@
 Les fêtes de l’ours sont donc des représentations de ces légendes populaires qui reflètent l’opposition nature/culture et animalité/humanité. 
 Si le déroulement des fêtes a surement évolué dans le temps, son historique n’est pas connu. En revanche, on peut affirmer que ces célébrations sont très anciennes puisqu’elles descendraient de cultes préhistoriques, puis des Lupercales romaines, puis des cultes à l’ours au Moyen Âge. Le texte le plus ancien connu à ce jour évoquant la présence de l’ours dans des fêtes date de 1424 et se trouve en Catalogne. 
 Si aujourd’hui on retrouve les fêtes de l’ours dans leur état d’origine seulement dans le Haut-Vallespir, le culte de l’ours est toujours présent dans certaines régions et notamment dans les Pyrénées (Béarn, Pays basque…) dans d’autres manifestations telles le Carnaval.
-Le 17 décembre 2014, les trois fêtes sont inscrites à l'Inventaire du patrimoine culturel immatériel en France[1] en vue d'une candidature à l'inscription au patrimoine mondial de l'UNESCO. L'annonce officielle est faite le 19 janvier suivant par les maires des trois communes[2].
-En 2021, les trois fêtes de l'ours en Vallespir sont annulées en raison de la pandémie de Covid-19 en France[3].
-Le 29 novembre 2022, les fêtes de l'ours dans les Pyrénées d'Andorre et de France sont inscrites au Patrimoine culturel immatériel de l'UNESCO[4].
+Le 17 décembre 2014, les trois fêtes sont inscrites à l'Inventaire du patrimoine culturel immatériel en France en vue d'une candidature à l'inscription au patrimoine mondial de l'UNESCO. L'annonce officielle est faite le 19 janvier suivant par les maires des trois communes.
+En 2021, les trois fêtes de l'ours en Vallespir sont annulées en raison de la pandémie de Covid-19 en France.
+Le 29 novembre 2022, les fêtes de l'ours dans les Pyrénées d'Andorre et de France sont inscrites au Patrimoine culturel immatériel de l'UNESCO.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_l%27ours_en_Vallespir</t>
+          <t>Fêtes_de_l'ours_en_Vallespir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Scénario des fêtes de l’ours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les fêtes de l’ours mettent en scène la relation ours-hommes chasseurs et femmes.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fêtes de l’ours mettent en scène la relation ours-hommes chasseurs et femmes.  
 La fête de l'ours marquait le départ des chasseurs des villages du Vallespir à la chasse à l'ours. Ce dernier est un prédateur très modéré des troupeaux de moutons, il peut voler un agneau mais les vaches et les taureaux les chassent facilement, et sa fourrure a beaucoup de valeur. Des familles de chasseurs existaient dans les villages. Egalement, ses petits étaient enlevés pour devenir des sujets de distraction (montreurs d'ours) alors que la mère est très protectrice.
 Comme il a un comportement et un aspect très humain, on le respecte et on le craint. 
 Dépouillé de sa fourrure, il ressemble à un corps humain.
@@ -565,9 +581,7 @@
 Ces fêtes mettent l'ours sur un trône.
 Le rituel se termine toujours de la même manière, par la démonstration de la domination de l’homme sur l’ours, à travers sa capture symbolique et le rasage de la fourrure. Cela représente aussi la victoire de l'être humain sur sa partie animale. Mais surtout son respect envers l'ours. 
 Ces pratiques sont très anciennes et s’étendaient autrefois sur une partie bien plus large du territoire français et international, en particulier dans l’hémisphère nord. 
-Chasse à l’ours d’Arles-sur-Tech
-Chasse à l’ours de Prats-de-Mollo-la-Preste
-Chasse à l’ours de Saint-Laurent-de-Cerdans</t>
+</t>
         </is>
       </c>
     </row>
